--- a/Datas/silhouette_score_data.xlsx
+++ b/Datas/silhouette_score_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,79 +434,2002 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>random kmeans</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>kde kmeans</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>kmeans++</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>random SOM</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>kmeans SOM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>kde kmeans SOM</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>kmeans++ SOM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>SOM++</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>kde SOM</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.8209926274606471</v>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8135688256347997</v>
+        <v>0.8047</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6382225726716072</v>
+        <v>0.8294</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8102081753420244</v>
+        <v>0.5459000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5070066143434684</v>
+        <v>0.8611</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8043651377384728</v>
+        <v>0.5014</v>
       </c>
       <c r="G2" t="n">
-        <v>0.588889089250355</v>
+        <v>0.4404</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6658253348449622</v>
+        <v>0.8358</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8355622792872908</v>
+        <v>0.4963</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6947</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8087</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8123</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6371</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7043</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.2625</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6435999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.4127</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8233</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8206</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6629</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4342</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6411</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4544</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8127</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8133</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6385999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6699000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1721</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8193</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7047</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6849</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6895</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8124</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6864</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5972</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6435999999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5232</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.792</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8329</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8283</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6462</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2987</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7072000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6755</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.7124</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8250999999999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.3123</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6397</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8146</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8332000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8215</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5359</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8365</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3202</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4551</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.6479</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7957</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8123</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8133</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6369</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8356</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8306</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7813</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6698</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6621</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8047</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7823</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4797</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7904</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5983000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.6123</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6398</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.6989</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8133</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8075</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6639</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8082</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8064</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8356</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.6126</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5877</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8112</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8138</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6498</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4068</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7903</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.6868</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6756</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.5118</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8341</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6603</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6656</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7428</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.7968</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.3409</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.6609</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.7709</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8332000000000001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8213</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5498</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5101</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.7933</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8611</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8252</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6637999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.7603</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7117</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6607</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8611</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8328</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8605</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8248</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7355</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6571</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8358</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8351</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8132</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6603</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6367</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4187</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2379</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.7040999999999999</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.7896</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8065</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6548</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4374</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.6964</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6757</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.6526</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8166</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8148</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6736</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7603</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5832000000000001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.7691</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6946</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8611</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8289</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8062</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5544</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.8044</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5319</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3443</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8332000000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8075</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6516</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7674</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.6143999999999999</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6625</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8119</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8144</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6487000000000001</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7897</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0584</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6767</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8325</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.8331</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8133</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5347</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8064</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7603</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.6311</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8181</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8143</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8134</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6599</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7603</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7274</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5848</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6781</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8205</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.6592</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3906</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.7648</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.8047</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8126</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6482</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.4001</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8021</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8143</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.6613</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1954</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.6423</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5304</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.4675</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.4951</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.7272999999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8064</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.6463</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.3151</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6862</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6565</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8268</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8136</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8164</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.6457000000000001</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.8347</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.2974</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.7936</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.7603</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.8326</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5422</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7902</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8168</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.4533</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5849</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.8358</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8124</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8131</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.6497000000000001</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4909</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4156</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1936</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.8358</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.8132</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5496</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5269</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.4181</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.6424</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8047</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.7059</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8047</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.8108</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8064</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.6639</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.5367</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8358</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8058999999999999</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5448</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.4833</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.8044</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.6786</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.6467000000000001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.8611</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.8332000000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7615</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5432</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.8044</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8611</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8332000000000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8066</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6167</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.4699</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6692</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.8358</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.8133</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8132</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.6415</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.8121</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5726</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.7603</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6165</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8611</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8122</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.8137</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.6621</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.8233</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.8055</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.8047</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7413</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8358</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8105</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5258</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.6921</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.8339</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.6902</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.3994</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8358</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8332000000000001</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6494</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.2196</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6435999999999999</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.7622</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5276</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6649</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5224</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.7836</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6762</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.2012</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8327</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.8065</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5425</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7087</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.8056</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.5745</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6652</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.7072000000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.8332000000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6608000000000001</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.8348</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.4305</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6973</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.2213</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.8248</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.6391</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8216</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.7072000000000001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.6755</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.8611</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.8325</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.8357</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5365</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.7637</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.8356</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.8325</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.5111</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.4557</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.7854</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8123</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.6622</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.5162</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.835</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.8179</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.8344</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5891</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.8212</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8313</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.7821</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8244</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.5161</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8358</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.8329</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.8063</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.6523</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.2003</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.4995</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.7627</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.4519</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.6891</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.8132</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.8131</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.6874</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.7008</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.6741</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.2184</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.4616</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.6757</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.8358</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.8189</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.8134</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.6869</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.8114</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.8356</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.4137</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.4694</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.7616000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8328</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.6391</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.6015</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.3212</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.7603</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.8007</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.8132</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.6552</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.6706</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.6679</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.2056</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.6286</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.8013</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.8044</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.3501</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.4852</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.8006</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.8252</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5482</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.3055</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.5483</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.8356</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.8117</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5386</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6951000000000001</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.6435</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.1052</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.6911</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.806</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.8062</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.6532</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.6435999999999999</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.4689</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.8611</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.8106</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.6804</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7742</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.8226</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.7072000000000001</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.7719</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.6485</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.8142</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.8131</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.6279</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.7948</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.6585</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.8358</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.8044</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.6475</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.7866</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.6271</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.5906</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.7986</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.8154</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8231000000000001</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.8336</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5824</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.7603</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.8358</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.8318</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.4851</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.5776</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.7587</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/silhouette_score_data.xlsx
+++ b/Datas/silhouette_score_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,30 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>random kmeans</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>kde kmeans</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>kmeans++</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>random SOM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>kmeans SOM</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>kde kmeans SOM</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>kmeans++ SOM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>SOM++</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>kde SOM</t>
         </is>
@@ -485,31 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8047</v>
+        <v>0.2892</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8294</v>
+        <v>0.4123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5459000000000001</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8611</v>
+        <v>0.8189</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5014</v>
+        <v>0.3014</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4404</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.4963</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6947</v>
+        <v>0.6005</v>
       </c>
     </row>
     <row r="3">
@@ -517,31 +493,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8087</v>
+        <v>0.2457</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8123</v>
+        <v>0.2813</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6371</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7043</v>
+        <v>0.8189</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2625</v>
+        <v>0.4168</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6435999999999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.4127</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8233</v>
+        <v>0.4018</v>
       </c>
     </row>
     <row r="4">
@@ -549,31 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.805</v>
+        <v>0.2911</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8206</v>
+        <v>0.1342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6629</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8358</v>
+        <v>0.1977</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4342</v>
+        <v>0.2959</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.6411</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4544</v>
+        <v>0.4312</v>
       </c>
     </row>
     <row r="5">
@@ -581,31 +539,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8127</v>
+        <v>0.2663</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8133</v>
+        <v>0.4155</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6385999999999999</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6699000000000001</v>
+        <v>0.1506</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1721</v>
+        <v>0.4629</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8193</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7047</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.6849</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6895</v>
+        <v>0.4408</v>
       </c>
     </row>
     <row r="6">
@@ -613,31 +562,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.833</v>
+        <v>0.2408</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8124</v>
+        <v>0.2822</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6864</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5972</v>
+        <v>0.2934</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6435999999999999</v>
+        <v>0.2002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5232</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.538</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.792</v>
+        <v>0.3905</v>
       </c>
     </row>
     <row r="7">
@@ -645,31 +585,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8329</v>
+        <v>0.3254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8283</v>
+        <v>0.2625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6462</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2987</v>
+        <v>0.3491</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8358</v>
+        <v>0.2037</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.7072000000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.6755</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.7124</v>
+        <v>0.5812</v>
       </c>
     </row>
     <row r="8">
@@ -677,31 +608,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.2588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.2881</v>
       </c>
       <c r="D8" t="n">
-        <v>0.651</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.758</v>
+        <v>-0.2935</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8250999999999999</v>
+        <v>0.1707</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8611</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.3123</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.6397</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.8146</v>
+        <v>0.4174</v>
       </c>
     </row>
     <row r="9">
@@ -709,31 +631,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8332000000000001</v>
+        <v>0.2874</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8215</v>
+        <v>0.2167</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5359</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8358</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8365</v>
+        <v>0.6927</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3202</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.4551</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6479</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7957</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="10">
@@ -741,31 +654,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8123</v>
+        <v>0.2697</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8133</v>
+        <v>0.2633</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6369</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8356</v>
+        <v>0.8189</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8306</v>
+        <v>0.2784</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.7813</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.6698</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="11">
@@ -773,31 +677,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="C11" t="n">
-        <v>0.805</v>
+        <v>0.4324</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6621</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8047</v>
+        <v>0.314</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7823</v>
+        <v>0.2792</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.4797</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.7904</v>
+        <v>0.4247</v>
       </c>
     </row>
     <row r="12">
@@ -805,31 +700,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.833</v>
+        <v>0.4503</v>
       </c>
       <c r="C12" t="n">
-        <v>0.805</v>
+        <v>0.4272</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5983000000000001</v>
+        <v>-1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.758</v>
+        <v>0.3777</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8611</v>
+        <v>0.6048</v>
       </c>
       <c r="G12" t="n">
-        <v>0.695</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.6123</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.6398</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6989</v>
+        <v>0.5931</v>
       </c>
     </row>
     <row r="13">
@@ -837,31 +723,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8133</v>
+        <v>0.2724</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8075</v>
+        <v>0.4131</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6639</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8082</v>
+        <v>0.7936</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8064</v>
+        <v>0.4513</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8356</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.6126</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.5877</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.72</v>
+        <v>0.6021</v>
       </c>
     </row>
     <row r="14">
@@ -869,31 +746,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8112</v>
+        <v>0.2478</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8138</v>
+        <v>0.396</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6498</v>
+        <v>-1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8358</v>
+        <v>0.4387</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4068</v>
+        <v>0.3101</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7903</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.6868</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.6756</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5118</v>
+        <v>0.5864</v>
       </c>
     </row>
     <row r="15">
@@ -901,31 +769,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.825</v>
+        <v>0.2595</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8341</v>
+        <v>-0.2367</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6603</v>
+        <v>-1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6656</v>
+        <v>0.5158</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7428</v>
+        <v>0.3431</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7968</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.3409</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.6609</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.7709</v>
+        <v>0.3963</v>
       </c>
     </row>
     <row r="16">
@@ -933,31 +792,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8332000000000001</v>
+        <v>0.238</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8213</v>
+        <v>0.114</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5498</v>
+        <v>-1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5101</v>
+        <v>0.8189</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8358</v>
+        <v>0.4322</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7933</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.8611</v>
+        <v>0.3978</v>
       </c>
     </row>
     <row r="17">
@@ -965,31 +815,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.4598</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8252</v>
+        <v>0.4214</v>
       </c>
       <c r="D17" t="n">
-        <v>0.554</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6637999999999999</v>
+        <v>0.2914</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8611</v>
+        <v>0.2565</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7603</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.7117</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.6607</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8611</v>
+        <v>0.2442</v>
       </c>
     </row>
     <row r="18">
@@ -997,31 +838,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8328</v>
+        <v>0.2798</v>
       </c>
       <c r="C18" t="n">
-        <v>0.805</v>
+        <v>0.51</v>
       </c>
       <c r="D18" t="n">
-        <v>0.542</v>
+        <v>-1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8358</v>
+        <v>0.5961</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8605</v>
+        <v>0.8189</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8248</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.7355</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.6571</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8358</v>
+        <v>0.3203</v>
       </c>
     </row>
     <row r="19">
@@ -1029,31 +861,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8351</v>
+        <v>0.2793</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8132</v>
+        <v>-0.3911</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6603</v>
+        <v>-1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6367</v>
+        <v>0.2073</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4187</v>
+        <v>0.2048</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2379</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.7040999999999999</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.7896</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="20">
@@ -1061,31 +884,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8065</v>
+        <v>0.268</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8129</v>
+        <v>0.187</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6548</v>
+        <v>-1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4374</v>
+        <v>0.1245</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6964</v>
+        <v>0.1888</v>
       </c>
       <c r="G20" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.6757</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6526</v>
+        <v>0.5919</v>
       </c>
     </row>
     <row r="21">
@@ -1093,31 +907,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8166</v>
+        <v>0.2455</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8148</v>
+        <v>0.3536</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6736</v>
+        <v>-1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7603</v>
+        <v>0.6642</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5832000000000001</v>
+        <v>0.4596</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7691</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.6946</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.8611</v>
+        <v>0.3781</v>
       </c>
     </row>
     <row r="22">
@@ -1125,31 +930,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8289</v>
+        <v>0.2735</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8062</v>
+        <v>0.2458</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5544</v>
+        <v>-1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.407</v>
+        <v>0.8189</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8358</v>
+        <v>0.1212</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8044</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.5319</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.742</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.3443</v>
+        <v>0.4115</v>
       </c>
     </row>
     <row r="23">
@@ -1157,31 +953,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8332000000000001</v>
+        <v>0.3064</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8075</v>
+        <v>-0.0616</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6516</v>
+        <v>-1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7674</v>
+        <v>0.8189</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8358</v>
+        <v>0.3674</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.6143999999999999</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.6625</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.8215</v>
+        <v>0.4424</v>
       </c>
     </row>
     <row r="24">
@@ -1189,31 +976,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8119</v>
+        <v>0.2582</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8144</v>
+        <v>0.5665</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6487000000000001</v>
+        <v>-1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8611</v>
+        <v>0.4808</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7897</v>
+        <v>0.4951</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0584</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.6767</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.8325</v>
+        <v>0.3795</v>
       </c>
     </row>
     <row r="25">
@@ -1221,31 +999,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8331</v>
+        <v>0.365</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8133</v>
+        <v>0.0399</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5347</v>
+        <v>-1</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8611</v>
+        <v>0.4109</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8064</v>
+        <v>0.3789</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7603</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.6311</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.8181</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="26">
@@ -1253,31 +1022,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8143</v>
+        <v>0.2848</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8134</v>
+        <v>0.6014</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6599</v>
+        <v>-1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7603</v>
+        <v>0.2868</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7274</v>
+        <v>0.3453</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5848</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.6781</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.202</v>
+        <v>0.6044</v>
       </c>
     </row>
     <row r="27">
@@ -1285,31 +1045,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8125</v>
+        <v>0.2304</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8205</v>
+        <v>0.3833</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6592</v>
+        <v>-1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.822</v>
+        <v>0.089</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3906</v>
+        <v>0.1968</v>
       </c>
       <c r="G27" t="n">
-        <v>0.312</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.599</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.7648</v>
+        <v>0.4003</v>
       </c>
     </row>
     <row r="28">
@@ -1317,31 +1068,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8047</v>
+        <v>0.2918</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8126</v>
+        <v>0.4157</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6482</v>
+        <v>-1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8611</v>
+        <v>0.5114</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8611</v>
+        <v>0.3699</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.4001</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.8021</v>
+        <v>0.4702</v>
       </c>
     </row>
     <row r="29">
@@ -1349,31 +1091,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.805</v>
+        <v>0.2741</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8143</v>
+        <v>0.4018</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6613</v>
+        <v>-1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1954</v>
+        <v>0.5337</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6423</v>
+        <v>0.349</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5304</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.4675</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.4951</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.7272999999999999</v>
+        <v>0.3967</v>
       </c>
     </row>
     <row r="30">
@@ -1381,31 +1114,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.825</v>
+        <v>0.2767</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8064</v>
+        <v>-0.1423</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6463</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.825</v>
+        <v>0.3841</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8611</v>
+        <v>0.6199</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3151</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.6862</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.6565</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.8268</v>
+        <v>0.4702</v>
       </c>
     </row>
     <row r="31">
@@ -1413,31 +1137,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8136</v>
+        <v>0.2781</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8164</v>
+        <v>0.5185</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6457000000000001</v>
+        <v>-1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8611</v>
+        <v>0.8189</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8347</v>
+        <v>0.4364</v>
       </c>
       <c r="G31" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.2974</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.7936</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.7603</v>
+        <v>0.3746</v>
       </c>
     </row>
     <row r="32">
@@ -1445,31 +1160,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8326</v>
+        <v>0.2497</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8125</v>
+        <v>0.7929</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5422</v>
+        <v>-1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7902</v>
+        <v>-0.0752</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8168</v>
+        <v>0.3881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.4533</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.5849</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.8358</v>
+        <v>0.6044</v>
       </c>
     </row>
     <row r="33">
@@ -1477,31 +1183,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8124</v>
+        <v>0.2751</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8131</v>
+        <v>0.07539999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6497000000000001</v>
+        <v>-1</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4909</v>
+        <v>0.3828</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4156</v>
+        <v>0.3166</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1936</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.3658</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.435</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.8358</v>
+        <v>0.4134</v>
       </c>
     </row>
     <row r="34">
@@ -1509,31 +1206,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.821</v>
+        <v>0.2729</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8132</v>
+        <v>0.4303</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5496</v>
+        <v>-1</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5269</v>
+        <v>0.4748</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4181</v>
+        <v>0.4077</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6424</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.8047</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.7059</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.8047</v>
+        <v>0.3866</v>
       </c>
     </row>
     <row r="35">
@@ -1541,31 +1229,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8108</v>
+        <v>0.2771</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.0649</v>
       </c>
       <c r="D35" t="n">
-        <v>0.651</v>
+        <v>-1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.8064</v>
+        <v>0.8032</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8611</v>
+        <v>0.248</v>
       </c>
       <c r="G35" t="n">
-        <v>0.654</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.6639</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.5367</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.8358</v>
+        <v>0.3581</v>
       </c>
     </row>
     <row r="36">
@@ -1573,31 +1252,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8058999999999999</v>
+        <v>0.471</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.5493</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5448</v>
+        <v>-1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8611</v>
+        <v>0.4272</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4833</v>
+        <v>0.3697</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8044</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.6786</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.6467000000000001</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.8611</v>
+        <v>0.5919</v>
       </c>
     </row>
     <row r="37">
@@ -1605,31 +1275,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8332000000000001</v>
+        <v>0.2787</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7615</v>
+        <v>0.3252</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5432</v>
+        <v>-1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0004</v>
+        <v>0.4674</v>
       </c>
       <c r="F37" t="n">
-        <v>0.806</v>
+        <v>0.4144</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8044</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.6198</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.8611</v>
+        <v>0.5753</v>
       </c>
     </row>
     <row r="38">
@@ -1637,31 +1298,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8332000000000001</v>
+        <v>0.2873</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8066</v>
+        <v>0.5331</v>
       </c>
       <c r="D38" t="n">
-        <v>0.539</v>
+        <v>-1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6167</v>
+        <v>0.8189</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8611</v>
+        <v>0.2657</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.4699</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.6692</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.8358</v>
+        <v>0.4574</v>
       </c>
     </row>
     <row r="39">
@@ -1669,31 +1321,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8133</v>
+        <v>0.2861</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8132</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6415</v>
+        <v>-1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.8121</v>
+        <v>0.2388</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5726</v>
+        <v>0.5657</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7603</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.739</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.6165</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.8611</v>
+        <v>0.4186</v>
       </c>
     </row>
     <row r="40">
@@ -1701,31 +1344,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8122</v>
+        <v>0.2631</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8137</v>
+        <v>0.696</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6621</v>
+        <v>-1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8233</v>
+        <v>-1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8055</v>
+        <v>0.3825</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8047</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.7413</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.645</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.8358</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="41">
@@ -1733,31 +1367,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.825</v>
+        <v>0.2888</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8105</v>
+        <v>0.3884</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5258</v>
+        <v>-1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8358</v>
+        <v>0.3118</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6921</v>
+        <v>0.3211</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8339</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.6902</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.3994</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.8358</v>
+        <v>0.4103</v>
       </c>
     </row>
     <row r="42">
@@ -1765,31 +1390,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8332000000000001</v>
+        <v>0.3047</v>
       </c>
       <c r="C42" t="n">
-        <v>0.825</v>
+        <v>0.34</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6494</v>
+        <v>-1</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2196</v>
+        <v>0.3293</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8611</v>
+        <v>0.1427</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6435999999999999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.7622</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.5276</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6649</v>
+        <v>0.6044</v>
       </c>
     </row>
     <row r="43">
@@ -1797,31 +1413,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.805</v>
+        <v>0.2664</v>
       </c>
       <c r="C43" t="n">
-        <v>0.805</v>
+        <v>-0.0282</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5224</v>
+        <v>-1</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8358</v>
+        <v>0.3297</v>
       </c>
       <c r="F43" t="n">
-        <v>0.634</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7836</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.6762</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.2012</v>
+        <v>0.5658</v>
       </c>
     </row>
     <row r="44">
@@ -1829,31 +1436,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8327</v>
+        <v>0.3381</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8065</v>
+        <v>0.3052</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5425</v>
+        <v>-1</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7087</v>
+        <v>0.5746</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8056</v>
+        <v>0.2907</v>
       </c>
       <c r="G44" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.5745</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.6652</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.7072000000000001</v>
+        <v>0.3995</v>
       </c>
     </row>
     <row r="45">
@@ -1861,31 +1459,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8332000000000001</v>
+        <v>0.4404</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8125</v>
+        <v>0.3529</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6608000000000001</v>
+        <v>-1</v>
       </c>
       <c r="E45" t="n">
-        <v>0.464</v>
+        <v>0.8189</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8348</v>
+        <v>0.2959</v>
       </c>
       <c r="G45" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.4305</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.6973</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.2213</v>
+        <v>0.6019</v>
       </c>
     </row>
     <row r="46">
@@ -1893,31 +1482,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8248</v>
+        <v>0.283</v>
       </c>
       <c r="C46" t="n">
-        <v>0.805</v>
+        <v>0.3019</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6391</v>
+        <v>-1</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8611</v>
+        <v>-0.1778</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8216</v>
+        <v>0.2608</v>
       </c>
       <c r="G46" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.7072000000000001</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.6755</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.8611</v>
+        <v>0.6071</v>
       </c>
     </row>
     <row r="47">
@@ -1925,31 +1505,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8325</v>
+        <v>0.2318</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8357</v>
+        <v>-0.0126</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5365</v>
+        <v>-1</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7637</v>
+        <v>0.5172</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8356</v>
+        <v>0.219</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8325</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.5111</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.4557</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.7854</v>
+        <v>0.4096</v>
       </c>
     </row>
     <row r="48">
@@ -1957,31 +1528,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8123</v>
+        <v>0.3048</v>
       </c>
       <c r="C48" t="n">
-        <v>0.825</v>
+        <v>0.1102</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6622</v>
+        <v>-1</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8611</v>
+        <v>0.8189</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8611</v>
+        <v>0.3758</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8611</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.5162</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.835</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="49">
@@ -1989,31 +1551,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8179</v>
+        <v>0.2406</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8344</v>
+        <v>-0.1972</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5891</v>
+        <v>-1</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8212</v>
+        <v>0.6158</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8313</v>
+        <v>0.4369</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7821</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.8244</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.5161</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.8358</v>
+        <v>0.5762</v>
       </c>
     </row>
     <row r="50">
@@ -2021,31 +1574,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8329</v>
+        <v>0.2714</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8063</v>
+        <v>0.6556999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6523</v>
+        <v>-1</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2003</v>
+        <v>0.193</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4995</v>
+        <v>0.2306</v>
       </c>
       <c r="G50" t="n">
-        <v>0.7627</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.4519</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.6891</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.825</v>
+        <v>0.4322</v>
       </c>
     </row>
     <row r="51">
@@ -2053,383 +1597,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8132</v>
+        <v>0.2773</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8131</v>
+        <v>0.3894</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6874</v>
+        <v>-1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7008</v>
+        <v>0.4165</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6741</v>
+        <v>0.3562</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2184</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.4616</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.6757</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.8358</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.8189</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.8134</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.6869</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.8114</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.831</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.8356</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.4137</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.4694</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.7616000000000001</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.8328</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.6391</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.6015</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.3212</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.7603</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.8007</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.8132</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.6552</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.8611</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.6706</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.6679</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.2056</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.6286</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.8013</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.8044</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.825</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.3501</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.4852</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.8006</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.8252</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5482</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.8611</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.3055</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.5483</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.553</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.8356</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.8117</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5386</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.6951000000000001</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.6435</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.1052</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.6911</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.806</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.8062</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.6532</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.224</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.8611</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.6435999999999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.2556</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.4689</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.8611</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.8106</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.6804</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.7742</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.8226</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.7072000000000001</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.7719</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6485</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.8142</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.8131</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.6279</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.794</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.0155</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.7948</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.6585</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.8358</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.8044</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.805</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.6475</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.7866</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.6271</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.5906</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.7986</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.8154</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.8231000000000001</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.8336</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.5824</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.7603</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.8358</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.8318</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.4851</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.5776</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.7587</v>
+        <v>0.5799</v>
       </c>
     </row>
   </sheetData>
